--- a/meta/program/BlancoRestGeneratorTsTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CC753-6B84-D64B-BCEC-06F5FF573FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F6BCA-EAC3-3249-80C4-EFD9D2B0D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21720" yWindow="3120" windowWidth="16520" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -317,6 +317,35 @@
   </si>
   <si>
     <t>実装するインタフェース(java.lang.String)の一覧。</t>
+  </si>
+  <si>
+    <t>descriptionList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスの補助説明です。文字参照エンコード済みの値を格納してください。</t>
+    <rPh sb="4" eb="6">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -751,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -876,6 +905,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -897,33 +957,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,7 +1351,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1360,7 +1395,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1385,10 +1420,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1543,14 +1578,14 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1560,27 +1595,27 @@
       <c r="E18" s="8"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1588,7 +1623,7 @@
       <c r="E21" s="23"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
@@ -1596,14 +1631,14 @@
       <c r="E22" s="27"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1613,33 +1648,33 @@
       <c r="E24" s="16"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="65" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="20">
         <v>1</v>
       </c>
@@ -1650,12 +1685,12 @@
         <v>24</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="49"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="31">
         <f>A27+1</f>
         <v>2</v>
@@ -1672,261 +1707,276 @@
       </c>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="31">
-        <f t="shared" ref="A29:A41" si="0">A28+1</f>
+    <row r="29" spans="1:7" s="50" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A29" s="66">
+        <f t="shared" ref="A29:A42" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="31">
+      <c r="B29" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="66">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="31">
+    <row r="31" spans="1:7">
+      <c r="A31" s="66">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="31">
+    <row r="32" spans="1:7">
+      <c r="A32" s="66">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31">
+      <c r="A33" s="66">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="34" t="s">
-        <v>26</v>
+      <c r="E33" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31">
+      <c r="A34" s="66">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
-        <v>50</v>
+      <c r="E34" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="F34" s="35"/>
     </row>
-    <row r="35" spans="1:7" s="59" customFormat="1" ht="45">
-      <c r="A35" s="31">
+    <row r="35" spans="1:7">
+      <c r="A35" s="66">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" s="59" customFormat="1" ht="15">
-      <c r="A36" s="31">
+      <c r="B35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A36" s="66">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="58"/>
+      <c r="B36" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="53"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" s="59" customFormat="1" ht="15">
-      <c r="A37" s="31">
+    <row r="37" spans="1:7" s="50" customFormat="1" ht="15">
+      <c r="A37" s="66">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="58"/>
+      <c r="B37" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="55"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" s="59" customFormat="1" ht="45" customHeight="1">
-      <c r="A38" s="31">
+    <row r="38" spans="1:7" s="50" customFormat="1" ht="15">
+      <c r="A38" s="66">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="62"/>
+      <c r="B38" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="55"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" s="59" customFormat="1" ht="45">
-      <c r="A39" s="31">
+    <row r="39" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1">
+      <c r="A39" s="66">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="57" t="s">
-        <v>56</v>
+      <c r="E39" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="F39" s="58"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="59" customFormat="1" ht="45">
-      <c r="A40" s="31">
+    <row r="40" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A40" s="66">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="56" t="s">
+      <c r="B40" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="61"/>
+      <c r="E40" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="55"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="31">
+    <row r="41" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A41" s="66">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="66">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C42" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D42" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E42" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="24"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="37"/>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+  <mergeCells count="18">
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -1938,10 +1988,16 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTelegramStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F6BCA-EAC3-3249-80C4-EFD9D2B0D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAB8FC9-21CC-474D-9385-49F7790DCC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="3120" windowWidth="16520" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="7140" windowWidth="19400" windowHeight="19660" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -344,6 +344,127 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>応答ステータス。エラー電文で使用される想定です。</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">シヨウフカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ ジッソウ バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>additionalPath</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メソッド毎に固定のパスを追加する場合に使用。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ゴトオ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">コテイノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>paramPreferred</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"PATH"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>POST/PUTメソッドでURIパスとbodyのJSONプロパティの名前が被った際の動作を規定する。</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ナマエガ </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">カブッタ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ドウサヲ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キテイスル </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hasQueryParams</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パラメータをQueryStringで取得する場合はtrueとします。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>calculatedPackage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最終的に使用されるパッケージ名を保存します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">サイシュウテキニ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シヨウサレル </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ホゾｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>telegramSuffix</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文IDの後ろに付与されます。エラー電文で使用される想定です。</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">シヨウフカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">バアイニ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -411,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -687,41 +808,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom style="dotted">
         <color indexed="8"/>
@@ -776,24 +862,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -815,12 +957,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -884,56 +1024,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,16 +1088,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,10 +1557,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1494,8 +1631,8 @@
         <v>45</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1554,11 +1691,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1579,11 +1716,11 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
@@ -1596,47 +1733,47 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
@@ -1649,333 +1786,446 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="1:7" s="50" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A29" s="66">
-        <f t="shared" ref="A29:A42" si="0">A28+1</f>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A29" s="29">
+        <f t="shared" ref="A29:A48" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="F29" s="53"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="66">
+      <c r="A30" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="66">
+      <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="66">
+      <c r="A32" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="66">
+      <c r="A33" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="66">
+      <c r="A34" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="66">
+      <c r="A35" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" s="50" customFormat="1" ht="45">
-      <c r="A36" s="66">
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:7" s="44" customFormat="1" ht="45">
+      <c r="A36" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="51"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" s="50" customFormat="1" ht="15">
-      <c r="A37" s="66">
+    <row r="37" spans="1:7" s="44" customFormat="1" ht="15">
+      <c r="A37" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="53"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" s="50" customFormat="1" ht="15">
-      <c r="A38" s="66">
+    <row r="38" spans="1:7" s="44" customFormat="1" ht="15">
+      <c r="A38" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="54" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="53"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1">
-      <c r="A39" s="66">
+    <row r="39" spans="1:7" s="44" customFormat="1" ht="45" customHeight="1">
+      <c r="A39" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="56"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="50" customFormat="1" ht="45">
-      <c r="A40" s="66">
+    <row r="40" spans="1:7" s="44" customFormat="1" ht="45">
+      <c r="A40" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="53"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" s="50" customFormat="1" ht="45">
-      <c r="A41" s="66">
+    <row r="41" spans="1:7" s="44" customFormat="1" ht="45">
+      <c r="A41" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="55"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="66">
+      <c r="A42" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="24"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="37"/>
+      <c r="F42" s="49"/>
+    </row>
+    <row r="43" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="44" customFormat="1" ht="15">
+      <c r="A48" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="22"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
@@ -1994,10 +2244,15 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2065,48 +2320,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
